--- a/resources/excelTestData.xlsx
+++ b/resources/excelTestData.xlsx
@@ -48,15 +48,9 @@
     <t>viewName</t>
   </si>
   <si>
-    <t>Test_Cloned</t>
-  </si>
-  <si>
     <t>newViewName</t>
   </si>
   <si>
-    <t>Test_Cloned_Edited</t>
-  </si>
-  <si>
     <t>columnsToSelect</t>
   </si>
   <si>
@@ -67,6 +61,12 @@
   </si>
   <si>
     <t>Source, Includes, Orcl_dvSum</t>
+  </si>
+  <si>
+    <t>testView</t>
+  </si>
+  <si>
+    <t>testViewEdited</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,27 +409,27 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excelTestData.xlsx
+++ b/resources/excelTestData.xlsx
@@ -63,10 +63,10 @@
     <t>Source, Includes, Orcl_dvSum</t>
   </si>
   <si>
-    <t>testView</t>
-  </si>
-  <si>
-    <t>testViewEdited</t>
+    <t>testViewTwo</t>
+  </si>
+  <si>
+    <t>testViewTwoEdited</t>
   </si>
 </sst>
 </file>

--- a/resources/excelTestData.xlsx
+++ b/resources/excelTestData.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="3696"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="3696" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EditViewTest" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="2" r:id="rId2"/>
+    <sheet name="Pages" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,24 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>noPassword</t>
-  </si>
-  <si>
-    <t>secondWala User</t>
-  </si>
-  <si>
-    <t>lastPswd</t>
-  </si>
-  <si>
-    <t>firstUser</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>userName</t>
-  </si>
-  <si>
     <t>viewName</t>
   </si>
   <si>
@@ -54,29 +36,55 @@
     <t>columnsToSelect</t>
   </si>
   <si>
-    <t>specifyCriteria</t>
-  </si>
-  <si>
     <t>Primary Key, Density, Count Blanks, Profile Status, Source, Entity Type, Length, User Description, Source Type, Column, Distribution Type, Column Type, Min Value, Foreign Key, Sensitivity Level</t>
   </si>
   <si>
-    <t>Source, Includes, Orcl_dvSum</t>
-  </si>
-  <si>
     <t>testViewTwo</t>
   </si>
   <si>
     <t>testViewTwoEdited</t>
+  </si>
+  <si>
+    <t>Orcl_dvSum</t>
+  </si>
+  <si>
+    <t>Includes</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>columnToFilter</t>
+  </si>
+  <si>
+    <t>filterName</t>
+  </si>
+  <si>
+    <t>sourceToFilter</t>
+  </si>
+  <si>
+    <t>ColumnDictionaryPage</t>
+  </si>
+  <si>
+    <t>https://devqa.dvsum.com/dictionary/column</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,10 +107,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -110,8 +119,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,34 +413,48 @@
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="27.88671875" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -440,39 +465,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/resources/excelTestData.xlsx
+++ b/resources/excelTestData.xlsx
@@ -465,24 +465,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B2" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/resources/excelTestData.xlsx
+++ b/resources/excelTestData.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="3696" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="3696"/>
   </bookViews>
   <sheets>
     <sheet name="EditViewTest" sheetId="1" r:id="rId1"/>
-    <sheet name="Pages" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>viewName</t>
   </si>
@@ -45,12 +44,6 @@
     <t>testViewTwoEdited</t>
   </si>
   <si>
-    <t>Orcl_dvSum</t>
-  </si>
-  <si>
-    <t>Includes</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -63,28 +56,20 @@
     <t>sourceToFilter</t>
   </si>
   <si>
-    <t>ColumnDictionaryPage</t>
-  </si>
-  <si>
-    <t>https://devqa.dvsum.com/dictionary/column</t>
+    <t>Excludes</t>
+  </si>
+  <si>
+    <t>sarah db</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,11 +92,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -119,10 +103,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,13 +410,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -448,50 +430,17 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="45.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>